--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t>(05/01/2025 - 09/15/2025)</t>
+    <t>(06/01/2025 - 09/16/2025)</t>
   </si>
   <si>
     <t>Student</t>
@@ -86,55 +86,97 @@
     <t>PRI1: 5</t>
   </si>
   <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t>PRI3: 5</t>
+  </si>
+  <si>
+    <t>Robert Melgoza</t>
+  </si>
+  <si>
+    <t>Roumyadeb Karmakar (100%)</t>
+  </si>
+  <si>
     <t>$275.00</t>
   </si>
   <si>
     <t>Edwin Cabrera (100%)</t>
   </si>
   <si>
-    <t>$250.00</t>
-  </si>
-  <si>
-    <t>PRI3: 5</t>
-  </si>
-  <si>
-    <t>Robert Melgoza</t>
-  </si>
-  <si>
-    <t>Roumyadeb Karmakar (100%)</t>
-  </si>
-  <si>
-    <t>$359.10</t>
-  </si>
-  <si>
-    <t>PRI1: 24</t>
-  </si>
-  <si>
-    <t>Emily Hare</t>
-  </si>
-  <si>
-    <t>$179.55</t>
-  </si>
-  <si>
-    <t>Carol Henry</t>
-  </si>
-  <si>
-    <t>$160.65</t>
+    <t>Aaron Alcantara</t>
+  </si>
+  <si>
+    <t>$1000.00</t>
+  </si>
+  <si>
+    <t>PRI1: 2, GRP1: 2, PRT: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0%)</t>
+  </si>
+  <si>
+    <t>Aaron Bagnall</t>
+  </si>
+  <si>
+    <t>$380.00</t>
+  </si>
+  <si>
+    <t>PRI1: 3</t>
+  </si>
+  <si>
+    <t>Aaron Frye</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>GRP2: 5</t>
+  </si>
+  <si>
+    <t>Anna Tripp</t>
+  </si>
+  <si>
+    <t>PRI1: 10</t>
+  </si>
+  <si>
+    <t>Al Mann</t>
+  </si>
+  <si>
+    <t>$6000.00</t>
   </si>
   <si>
     <t>PRI1: 60</t>
   </si>
   <si>
-    <t>Aaron Frye</t>
-  </si>
-  <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>GRP2: 5</t>
+    <t>Anna Woodward</t>
+  </si>
+  <si>
+    <t>$378.00</t>
+  </si>
+  <si>
+    <t>PRI1: 0</t>
+  </si>
+  <si>
+    <t>Aaron Stark</t>
+  </si>
+  <si>
+    <t>$264.00</t>
+  </si>
+  <si>
+    <t>GRP1: 1, PRI1: 2, PRT: 1</t>
+  </si>
+  <si>
+    <t>Akethea Clarke</t>
+  </si>
+  <si>
+    <t>Robert Melgoza (100%)</t>
   </si>
   <si>
     <t>$15000.00</t>
+  </si>
+  <si>
+    <t>Total: $32,092.00</t>
   </si>
 </sst>
 </file>
@@ -188,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -205,9 +247,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -509,10 +554,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,7 +628,7 @@
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -606,7 +651,7 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -625,7 +670,7 @@
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -642,13 +687,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -658,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>28</v>
@@ -674,117 +719,253 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t>(06/01/2025 - 09/16/2025)</t>
+    <t>(07/01/2025 - 09/08/2025)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Student</t>
@@ -29,6 +32,9 @@
     <t>Amount of Sale</t>
   </si>
   <si>
+    <t>Enrollment Name</t>
+  </si>
+  <si>
     <t>Services</t>
   </si>
   <si>
@@ -44,12 +50,18 @@
     <t>Service Provider3</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
     <t>Aar Bagnall</t>
   </si>
   <si>
     <t>$2500.00</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>GEN: 5</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
     <t>Time Exchange (100%)</t>
   </si>
   <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
     <t>Chiara Grieco</t>
   </si>
   <si>
@@ -80,12 +95,18 @@
     <t>Coach Coach (100%)</t>
   </si>
   <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
     <t>$945.00</t>
   </si>
   <si>
     <t>PRI1: 5</t>
   </si>
   <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
     <t>$250.00</t>
   </si>
   <si>
@@ -104,6 +125,9 @@
     <t>Edwin Cabrera (100%)</t>
   </si>
   <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
     <t>Aaron Alcantara</t>
   </si>
   <si>
@@ -125,58 +149,7 @@
     <t>PRI1: 3</t>
   </si>
   <si>
-    <t>Aaron Frye</t>
-  </si>
-  <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>GRP2: 5</t>
-  </si>
-  <si>
-    <t>Anna Tripp</t>
-  </si>
-  <si>
-    <t>PRI1: 10</t>
-  </si>
-  <si>
-    <t>Al Mann</t>
-  </si>
-  <si>
-    <t>$6000.00</t>
-  </si>
-  <si>
-    <t>PRI1: 60</t>
-  </si>
-  <si>
-    <t>Anna Woodward</t>
-  </si>
-  <si>
-    <t>$378.00</t>
-  </si>
-  <si>
-    <t>PRI1: 0</t>
-  </si>
-  <si>
-    <t>Aaron Stark</t>
-  </si>
-  <si>
-    <t>$264.00</t>
-  </si>
-  <si>
-    <t>GRP1: 1, PRI1: 2, PRT: 1</t>
-  </si>
-  <si>
-    <t>Akethea Clarke</t>
-  </si>
-  <si>
-    <t>Robert Melgoza (100%)</t>
-  </si>
-  <si>
-    <t>$15000.00</t>
-  </si>
-  <si>
-    <t>Total: $32,092.00</t>
+    <t>Total: $5,530.00</t>
   </si>
 </sst>
 </file>
@@ -230,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -244,13 +217,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -554,10 +524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,7 +539,7 @@
     <col min="5" max="5" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +548,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" customHeight="1" ht="20">
+    <row r="2" spans="1:9" customHeight="1" ht="20">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +557,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -595,7 +565,7 @@
       <c r="E3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -617,361 +587,196 @@
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,54 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>SALES REPORT</t>
-  </si>
-  <si>
-    <t>(07/01/2025 - 09/08/2025)</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Amount of Sale</t>
-  </si>
-  <si>
-    <t>Enrollment Name</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Service Provider1</t>
-  </si>
-  <si>
-    <t>Service Provider2</t>
-  </si>
-  <si>
-    <t>Service Provider3</t>
-  </si>
-  <si>
-    <t>2025-09-02</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>09/28/2025</t>
   </si>
   <si>
     <t>Aar Bagnall</t>
   </si>
   <si>
-    <t>$2500.00</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>GEN: 5</t>
+    <t>$692.00</t>
+  </si>
+  <si>
+    <t>Testing Report 2 - ENR - 5</t>
+  </si>
+  <si>
+    <t>PRI1: 3, GRP1: 5, PRT: 0</t>
   </si>
   <si>
     <t>Daisy Ramirez</t>
@@ -71,85 +38,133 @@
     <t>Caleb Castillo (100%)</t>
   </si>
   <si>
-    <t>Nicholas Kavoklis (100%)</t>
-  </si>
-  <si>
-    <t>Time Exchange (100%)</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>Chiara Grieco</t>
-  </si>
-  <si>
-    <t>$180.00</t>
-  </si>
-  <si>
-    <t>NONE: 1</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera</t>
-  </si>
-  <si>
-    <t>Coach Coach (100%)</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
+    <t>09/27/2025</t>
+  </si>
+  <si>
+    <t>$1200.00</t>
+  </si>
+  <si>
+    <t>Testing Report - ENR - 4</t>
+  </si>
+  <si>
+    <t>PRI2: 6</t>
+  </si>
+  <si>
+    <t>Christy Melgoza</t>
+  </si>
+  <si>
+    <t>Caleb Castillo (50%)</t>
+  </si>
+  <si>
+    <t>Coach Coach (50%)</t>
+  </si>
+  <si>
+    <t>09/26/2025</t>
+  </si>
+  <si>
+    <t>$1070.00</t>
+  </si>
+  <si>
+    <t>PRI1: 5, GRP1: 5, PRT: 0</t>
+  </si>
+  <si>
+    <t>$2000.00</t>
+  </si>
+  <si>
+    <t>PRI2: 10</t>
+  </si>
+  <si>
+    <t>09/24/2025</t>
   </si>
   <si>
     <t>$945.00</t>
   </si>
   <si>
+    <t>AAS - ENR - 3</t>
+  </si>
+  <si>
     <t>PRI1: 5</t>
   </si>
   <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>$250.00</t>
-  </si>
-  <si>
-    <t>PRI3: 5</t>
-  </si>
-  <si>
-    <t>Robert Melgoza</t>
-  </si>
-  <si>
-    <t>Roumyadeb Karmakar (100%)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera (100%)</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>Aaron Alcantara</t>
-  </si>
-  <si>
-    <t>$1000.00</t>
-  </si>
-  <si>
-    <t>PRI1: 2, GRP1: 2, PRT: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0%)</t>
-  </si>
-  <si>
-    <t>Aaron Bagnall</t>
-  </si>
-  <si>
-    <t>$380.00</t>
-  </si>
-  <si>
-    <t>PRI1: 3</t>
-  </si>
-  <si>
-    <t>Total: $5,530.00</t>
+    <t>Daisy Ramirez (55%)</t>
+  </si>
+  <si>
+    <t>Regeene Zara</t>
+  </si>
+  <si>
+    <t>$3600.00</t>
+  </si>
+  <si>
+    <t>Complimentary Enrollment</t>
+  </si>
+  <si>
+    <t>PRI1: 24</t>
+  </si>
+  <si>
+    <t>Kimberly Southerland</t>
+  </si>
+  <si>
+    <t>Coach Coach (55%)</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>Aaron Stark</t>
+  </si>
+  <si>
+    <t>$175.00</t>
+  </si>
+  <si>
+    <t>ENR - 4</t>
+  </si>
+  <si>
+    <t>PRI1: 1</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez (44%)</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>ENR - 3</t>
+  </si>
+  <si>
+    <t>PRI2: 5</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera (55%)</t>
+  </si>
+  <si>
+    <t>Cristal Gonzalez</t>
+  </si>
+  <si>
+    <t>$2400.00</t>
+  </si>
+  <si>
+    <t>ENR - 1</t>
+  </si>
+  <si>
+    <t>Robert Melgoza (55%)</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>Amy Mandarich</t>
+  </si>
+  <si>
+    <t>$6000.00</t>
+  </si>
+  <si>
+    <t>PRI1: 60</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera (66%)</t>
+  </si>
+  <si>
+    <t>Total: $14,398.00</t>
   </si>
 </sst>
 </file>
@@ -524,10 +539,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,233 +558,259 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="20">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="H3"/>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="6" t="s">
-        <v>44</v>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,21 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>09/28/2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>SALES REPORT</t>
+  </si>
+  <si>
+    <t>Amto.Robert (Arthur Murray Thousand Oaks, Asansol, Medinipur, Migration)</t>
+  </si>
+  <si>
+    <t>(07/01/2025 - 09/21/2025)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Amount of Sale</t>
+  </si>
+  <si>
+    <t>Enrollment Name</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Service Provider1</t>
+  </si>
+  <si>
+    <t>Service Provider2</t>
+  </si>
+  <si>
+    <t>Service Provider3</t>
+  </si>
+  <si>
+    <t>09/02/2025</t>
   </si>
   <si>
     <t>Aar Bagnall</t>
   </si>
   <si>
-    <t>$692.00</t>
-  </si>
-  <si>
-    <t>Testing Report 2 - ENR - 5</t>
-  </si>
-  <si>
-    <t>PRI1: 3, GRP1: 5, PRT: 0</t>
+    <t>$2500.00</t>
+  </si>
+  <si>
+    <t>NEW -  - 11</t>
+  </si>
+  <si>
+    <t>GEN: 0</t>
   </si>
   <si>
     <t>Daisy Ramirez</t>
@@ -38,133 +74,103 @@
     <t>Caleb Castillo (100%)</t>
   </si>
   <si>
-    <t>09/27/2025</t>
-  </si>
-  <si>
-    <t>$1200.00</t>
-  </si>
-  <si>
-    <t>Testing Report - ENR - 4</t>
-  </si>
-  <si>
-    <t>PRI2: 6</t>
-  </si>
-  <si>
-    <t>Christy Melgoza</t>
-  </si>
-  <si>
-    <t>Caleb Castillo (50%)</t>
-  </si>
-  <si>
-    <t>Coach Coach (50%)</t>
-  </si>
-  <si>
-    <t>09/26/2025</t>
-  </si>
-  <si>
-    <t>$1070.00</t>
-  </si>
-  <si>
-    <t>PRI1: 5, GRP1: 5, PRT: 0</t>
-  </si>
-  <si>
-    <t>$2000.00</t>
-  </si>
-  <si>
-    <t>PRI2: 10</t>
-  </si>
-  <si>
-    <t>09/24/2025</t>
+    <t>Nicholas Kavoklis (100%)</t>
+  </si>
+  <si>
+    <t>Time Exchange (100%)</t>
+  </si>
+  <si>
+    <t>08/27/2025</t>
+  </si>
+  <si>
+    <t>Chiara Grieco</t>
+  </si>
+  <si>
+    <t>$180.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - </t>
+  </si>
+  <si>
+    <t>NONE: 0</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>Coach Coach (100%)</t>
+  </si>
+  <si>
+    <t>08/18/2025</t>
   </si>
   <si>
     <t>$945.00</t>
   </si>
   <si>
-    <t>AAS - ENR - 3</t>
-  </si>
-  <si>
-    <t>PRI1: 5</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez (55%)</t>
-  </si>
-  <si>
-    <t>Regeene Zara</t>
-  </si>
-  <si>
-    <t>$3600.00</t>
-  </si>
-  <si>
-    <t>Complimentary Enrollment</t>
-  </si>
-  <si>
-    <t>PRI1: 24</t>
-  </si>
-  <si>
-    <t>Kimberly Southerland</t>
-  </si>
-  <si>
-    <t>Coach Coach (55%)</t>
-  </si>
-  <si>
-    <t>09/10/2025</t>
-  </si>
-  <si>
-    <t>Aaron Stark</t>
-  </si>
-  <si>
-    <t>$175.00</t>
-  </si>
-  <si>
-    <t>ENR - 4</t>
-  </si>
-  <si>
-    <t>PRI1: 1</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez (44%)</t>
-  </si>
-  <si>
-    <t>$100.00</t>
-  </si>
-  <si>
-    <t>ENR - 3</t>
-  </si>
-  <si>
-    <t>PRI2: 5</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera (55%)</t>
-  </si>
-  <si>
-    <t>Cristal Gonzalez</t>
-  </si>
-  <si>
-    <t>$2400.00</t>
-  </si>
-  <si>
-    <t>ENR - 1</t>
-  </si>
-  <si>
-    <t>Robert Melgoza (55%)</t>
-  </si>
-  <si>
-    <t>09/09/2025</t>
-  </si>
-  <si>
-    <t>Amy Mandarich</t>
-  </si>
-  <si>
-    <t>$6000.00</t>
-  </si>
-  <si>
-    <t>PRI1: 60</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera (66%)</t>
-  </si>
-  <si>
-    <t>Total: $14,398.00</t>
+    <t>1 -  - 7</t>
+  </si>
+  <si>
+    <t>PRI1: 0</t>
+  </si>
+  <si>
+    <t>08/15/2025</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 10</t>
+  </si>
+  <si>
+    <t>PRI3: 0</t>
+  </si>
+  <si>
+    <t>Robert Melgoza</t>
+  </si>
+  <si>
+    <t>Roumyadeb Karmakar (100%)</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 9</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera (100%)</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>Aaron Bagnall</t>
+  </si>
+  <si>
+    <t>$380.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 3</t>
+  </si>
+  <si>
+    <t>PRI1: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0%)</t>
+  </si>
+  <si>
+    <t>Aaron Alcantara</t>
+  </si>
+  <si>
+    <t>$1000.00</t>
+  </si>
+  <si>
+    <t>2 -  - 2</t>
+  </si>
+  <si>
+    <t>PRI1: 2, GRP1: 2, PRT: 1</t>
+  </si>
+  <si>
+    <t>Total: $5,530.00</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,266 +564,250 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="20">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t>Amto.Robert (Arthur Murray Thousand Oaks, Asansol, Medinipur, Migration)</t>
-  </si>
-  <si>
-    <t>(07/01/2025 - 09/21/2025)</t>
+    <t>Amto.Robert (Arthur Murray Thousand Oaks) (Coach Coach, Caleb Castillo)</t>
+  </si>
+  <si>
+    <t>(09/01/2025 - 10/06/2025)</t>
   </si>
   <si>
     <t>Date</t>
@@ -53,124 +53,85 @@
     <t>Service Provider3</t>
   </si>
   <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>Aar Bagnall</t>
+  </si>
+  <si>
+    <t>$525.00</t>
+  </si>
+  <si>
+    <t>newnew -  - 14</t>
+  </si>
+  <si>
+    <t>PRI1: 5, GRP2: 5</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez</t>
+  </si>
+  <si>
+    <t>Coach Coach (100%)</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>09/24/2025</t>
+  </si>
+  <si>
+    <t>second -  - 13</t>
+  </si>
+  <si>
+    <t>PRI1: 0, GRP2: 0</t>
+  </si>
+  <si>
+    <t>Caleb Castillo (100%)</t>
+  </si>
+  <si>
+    <t>NEW -  - 11</t>
+  </si>
+  <si>
+    <t>GEN: 0</t>
+  </si>
+  <si>
+    <t>Nicholas Kavoklis (100%)</t>
+  </si>
+  <si>
+    <t>Time Exchange (100%)</t>
+  </si>
+  <si>
+    <t>$29325.00</t>
+  </si>
+  <si>
+    <t>Chiara Grieco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - </t>
+  </si>
+  <si>
+    <t>NONE: 0</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>$59.00</t>
+  </si>
+  <si>
+    <t>1 -  - 7</t>
+  </si>
+  <si>
+    <t>PRI1: 0</t>
+  </si>
+  <si>
     <t>09/02/2025</t>
   </si>
   <si>
-    <t>Aar Bagnall</t>
-  </si>
-  <si>
     <t>$2500.00</t>
   </si>
   <si>
-    <t>NEW -  - 11</t>
-  </si>
-  <si>
-    <t>GEN: 0</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez</t>
-  </si>
-  <si>
-    <t>Caleb Castillo (100%)</t>
-  </si>
-  <si>
-    <t>Nicholas Kavoklis (100%)</t>
-  </si>
-  <si>
-    <t>Time Exchange (100%)</t>
-  </si>
-  <si>
-    <t>08/27/2025</t>
-  </si>
-  <si>
-    <t>Chiara Grieco</t>
-  </si>
-  <si>
-    <t>$180.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - </t>
-  </si>
-  <si>
-    <t>NONE: 0</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera</t>
-  </si>
-  <si>
-    <t>Coach Coach (100%)</t>
-  </si>
-  <si>
-    <t>08/18/2025</t>
-  </si>
-  <si>
-    <t>$945.00</t>
-  </si>
-  <si>
-    <t>1 -  - 7</t>
-  </si>
-  <si>
-    <t>PRI1: 0</t>
-  </si>
-  <si>
-    <t>08/15/2025</t>
-  </si>
-  <si>
-    <t>$250.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 10</t>
-  </si>
-  <si>
-    <t>PRI3: 0</t>
-  </si>
-  <si>
-    <t>Robert Melgoza</t>
-  </si>
-  <si>
-    <t>Roumyadeb Karmakar (100%)</t>
-  </si>
-  <si>
-    <t>$275.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 9</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera (100%)</t>
-  </si>
-  <si>
-    <t>08/06/2025</t>
-  </si>
-  <si>
-    <t>Aaron Bagnall</t>
-  </si>
-  <si>
-    <t>$380.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 3</t>
-  </si>
-  <si>
-    <t>PRI1: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0%)</t>
-  </si>
-  <si>
-    <t>Aaron Alcantara</t>
-  </si>
-  <si>
-    <t>$1000.00</t>
-  </si>
-  <si>
-    <t>2 -  - 2</t>
-  </si>
-  <si>
-    <t>PRI1: 2, GRP1: 2, PRT: 1</t>
-  </si>
-  <si>
-    <t>Total: $5,530.00</t>
+    <t>Total: $32,409.00</t>
   </si>
 </sst>
 </file>
@@ -545,10 +506,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,166 +601,220 @@
       <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="6" t="s">
-        <v>51</v>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t>Amto.Robert (Arthur Murray Thousand Oaks) (Coach Coach, Caleb Castillo)</t>
-  </si>
-  <si>
-    <t>(09/01/2025 - 10/06/2025)</t>
+    <t>Amto.Robert (Arthur Murray Thousand Oaks) (Ramesh Ramchandani, Stefanie ScalesTO, Robert Melgoza, Trainees Trainees, Time Exchange, Coach Coach, Caleb Castillo, Emily Story, Daisy Ramirez, Edwin Cabrera, Jessy Moumaji)</t>
+  </si>
+  <si>
+    <t>(10/01/2025 - 10/10/2025)</t>
   </si>
   <si>
     <t>Date</t>
@@ -56,82 +56,46 @@
     <t>10/03/2025</t>
   </si>
   <si>
+    <t>Aaron Donely</t>
+  </si>
+  <si>
+    <t>$540.00</t>
+  </si>
+  <si>
+    <t>ENR - 1</t>
+  </si>
+  <si>
+    <t>PRI1: 3, GRP1: 6, PRT: 6</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>Emily Story (50%)</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
     <t>Aar Bagnall</t>
   </si>
   <si>
-    <t>$525.00</t>
-  </si>
-  <si>
-    <t>newnew -  - 14</t>
-  </si>
-  <si>
-    <t>PRI1: 5, GRP2: 5</t>
+    <t>$750.00</t>
+  </si>
+  <si>
+    <t>Testing Pay - ENR - 6</t>
+  </si>
+  <si>
+    <t>PRI2: 5</t>
   </si>
   <si>
     <t>Daisy Ramirez</t>
   </si>
   <si>
-    <t>Coach Coach (100%)</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>09/24/2025</t>
-  </si>
-  <si>
-    <t>second -  - 13</t>
-  </si>
-  <si>
-    <t>PRI1: 0, GRP2: 0</t>
-  </si>
-  <si>
-    <t>Caleb Castillo (100%)</t>
-  </si>
-  <si>
-    <t>NEW -  - 11</t>
-  </si>
-  <si>
-    <t>GEN: 0</t>
-  </si>
-  <si>
-    <t>Nicholas Kavoklis (100%)</t>
-  </si>
-  <si>
-    <t>Time Exchange (100%)</t>
-  </si>
-  <si>
-    <t>$29325.00</t>
-  </si>
-  <si>
-    <t>Chiara Grieco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - </t>
-  </si>
-  <si>
-    <t>NONE: 0</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera</t>
-  </si>
-  <si>
-    <t>$59.00</t>
-  </si>
-  <si>
-    <t>1 -  - 7</t>
-  </si>
-  <si>
-    <t>PRI1: 0</t>
-  </si>
-  <si>
-    <t>09/02/2025</t>
-  </si>
-  <si>
-    <t>$2500.00</t>
-  </si>
-  <si>
-    <t>Total: $32,409.00</t>
+    <t>Daisy Ramirez (50%)</t>
+  </si>
+  <si>
+    <t>Total: $1,290.00</t>
   </si>
 </sst>
 </file>
@@ -506,10 +470,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,215 +570,32 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/admin/SALES_REPORT.xlsx
+++ b/admin/SALES_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t>Amto.Robert (Arthur Murray Thousand Oaks) (Ramesh Ramchandani, Stefanie ScalesTO, Robert Melgoza, Trainees Trainees, Time Exchange, Coach Coach, Caleb Castillo, Emily Story, Daisy Ramirez, Edwin Cabrera, Jessy Moumaji)</t>
-  </si>
-  <si>
-    <t>(10/01/2025 - 10/10/2025)</t>
+    <t>Amto.Robert (Arthur Murray Thousand Oaks) (Edwin Cabrera, Nicholas Kavoklis, Caleb Castillo)</t>
+  </si>
+  <si>
+    <t>(07/01/2025 - 10/27/2025)</t>
   </si>
   <si>
     <t>Date</t>
@@ -53,49 +53,70 @@
     <t>Service Provider3</t>
   </si>
   <si>
-    <t>10/03/2025</t>
-  </si>
-  <si>
-    <t>Aaron Donely</t>
-  </si>
-  <si>
-    <t>$540.00</t>
-  </si>
-  <si>
-    <t>ENR - 1</t>
-  </si>
-  <si>
-    <t>PRI1: 3, GRP1: 6, PRT: 6</t>
+    <t>09/24/2025</t>
+  </si>
+  <si>
+    <t>Aar Bagnall</t>
+  </si>
+  <si>
+    <t>$29325.00</t>
+  </si>
+  <si>
+    <t>second -  - 13</t>
+  </si>
+  <si>
+    <t>PRI1: 0, GRP2: 0</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez</t>
+  </si>
+  <si>
+    <t>Caleb Castillo (100%)</t>
+  </si>
+  <si>
+    <t>$59.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>NEW -  - 11</t>
+  </si>
+  <si>
+    <t>GEN: 0</t>
+  </si>
+  <si>
+    <t>Nicholas Kavoklis (100%)</t>
+  </si>
+  <si>
+    <t>Time Exchange (100%)</t>
+  </si>
+  <si>
+    <t>09/02/2025</t>
+  </si>
+  <si>
+    <t>$2500.00</t>
+  </si>
+  <si>
+    <t>08/15/2025</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 9</t>
+  </si>
+  <si>
+    <t>PRI1: 0</t>
   </si>
   <si>
     <t>Edwin Cabrera</t>
   </si>
   <si>
-    <t>Emily Story (50%)</t>
-  </si>
-  <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
-    <t>Aar Bagnall</t>
-  </si>
-  <si>
-    <t>$750.00</t>
-  </si>
-  <si>
-    <t>Testing Pay - ENR - 6</t>
-  </si>
-  <si>
-    <t>PRI2: 5</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez</t>
-  </si>
-  <si>
-    <t>Daisy Ramirez (50%)</t>
-  </si>
-  <si>
-    <t>Total: $1,290.00</t>
+    <t>Edwin Cabrera (100%)</t>
+  </si>
+  <si>
+    <t>Total: $32,159.00</t>
   </si>
 </sst>
 </file>
@@ -470,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,32 +591,140 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
